--- a/Nhom15_BangPhanCongCV.xlsx
+++ b/Nhom15_BangPhanCongCV.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotha\Desktop\Đồ án LTCSDL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotha\Documents\Visual Studio 2013\Projects\QLShopTheThao\DoAnLTCSDL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00DBC917-1D42-42E5-9B55-26A9540F248F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D3A688-C9C0-4D8E-A40B-1DC52FD65F5D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="450" windowWidth="24000" windowHeight="9285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
   <si>
     <t>Tên công việc</t>
   </si>
@@ -53,16 +53,7 @@
     <t>File script Sql</t>
   </si>
   <si>
-    <t>StoreProcedure</t>
-  </si>
-  <si>
     <t>Hoàn thành</t>
-  </si>
-  <si>
-    <t>Function</t>
-  </si>
-  <si>
-    <t>Trigger</t>
   </si>
   <si>
     <t xml:space="preserve">Hồ Thái An
@@ -70,7 +61,16 @@
 </t>
   </si>
   <si>
-    <t>Chưa hoàn thành</t>
+    <t>Phân tích hệ thống</t>
+  </si>
+  <si>
+    <t>Thiết kế hệ thống</t>
+  </si>
+  <si>
+    <t>Xây dựng chức năng</t>
+  </si>
+  <si>
+    <t>Báo cáo word</t>
   </si>
 </sst>
 </file>
@@ -124,7 +124,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -142,6 +142,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -423,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -462,7 +465,7 @@
         <v>43392</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -476,7 +479,7 @@
         <v>43392</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -490,49 +493,54 @@
         <v>43392</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="3">
-        <v>43392</v>
-      </c>
+      <c r="C5" s="3"/>
       <c r="D5" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="3">
-        <v>43392</v>
-      </c>
+      <c r="C6" s="3"/>
       <c r="D6" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="3">
-        <v>43392</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C7" s="3"/>
       <c r="D7" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>13</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
